--- a/WebPage/Common/RptTemplet/0511Report.xlsx
+++ b/WebPage/Common/RptTemplet/0511Report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF5179E-B812-4BFD-862D-135C38D90A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1704F1F-F148-41EF-8A15-45ABF3CDED04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,21 +435,21 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
